--- a/data/trans_orig/P2A_fisi_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2A_fisi_R-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>19475</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>12093</v>
+        <v>12489</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>28474</v>
+        <v>29359</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02806076342275051</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01742487166543302</v>
+        <v>0.01799508034451833</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04102808878078762</v>
+        <v>0.0423036569164986</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -765,19 +765,19 @@
         <v>34292</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>24518</v>
+        <v>23947</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>47179</v>
+        <v>46862</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04981734384148666</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03561891974742285</v>
+        <v>0.03478935388505761</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06853876324732541</v>
+        <v>0.06807796732475226</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>54</v>
@@ -786,19 +786,19 @@
         <v>53766</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>40033</v>
+        <v>41444</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>68864</v>
+        <v>69941</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03889450451707111</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02895992782707359</v>
+        <v>0.02998077819024551</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04981600009135997</v>
+        <v>0.05059511347307806</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>674537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>665538</v>
+        <v>664653</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>681919</v>
+        <v>681523</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9719392365772495</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9589719112192123</v>
+        <v>0.9576963430835013</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9825751283345669</v>
+        <v>0.9820049196554818</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>662</v>
@@ -836,19 +836,19 @@
         <v>654059</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>641172</v>
+        <v>641489</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>663833</v>
+        <v>664404</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9501826561585134</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9314612367526742</v>
+        <v>0.9319220326752476</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.964381080252577</v>
+        <v>0.9652106461149423</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1325</v>
@@ -857,19 +857,19 @@
         <v>1328597</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1313499</v>
+        <v>1312422</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1342330</v>
+        <v>1340919</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9611054954829289</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9501839999086401</v>
+        <v>0.9494048865269219</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9710400721729264</v>
+        <v>0.9700192218097545</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>53011</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39248</v>
+        <v>40362</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>69241</v>
+        <v>70172</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0551161170349057</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04080634838407466</v>
+        <v>0.04196472772996707</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.07199080304141878</v>
+        <v>0.07295855378435356</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -982,19 +982,19 @@
         <v>55863</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>41773</v>
+        <v>42115</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>72729</v>
+        <v>71095</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05768638671104671</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04313635091253841</v>
+        <v>0.04348942462248143</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.07510325277065467</v>
+        <v>0.07341497255805626</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>101</v>
@@ -1003,19 +1003,19 @@
         <v>108874</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>89094</v>
+        <v>89157</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>131504</v>
+        <v>129795</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0564056415695818</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04615788077961484</v>
+        <v>0.04619090043561912</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06812998489033044</v>
+        <v>0.06724465836639094</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>908789</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>892559</v>
+        <v>891628</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>922552</v>
+        <v>921438</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9448838829650943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.928009196958581</v>
+        <v>0.9270414462156457</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9591936516159252</v>
+        <v>0.9580352722700327</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>857</v>
@@ -1053,19 +1053,19 @@
         <v>912530</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>895664</v>
+        <v>897298</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>926620</v>
+        <v>926278</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9423136132889532</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9248967472293455</v>
+        <v>0.9265850274419438</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.956863649087462</v>
+        <v>0.9565105753775186</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1703</v>
@@ -1074,19 +1074,19 @@
         <v>1821319</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1798689</v>
+        <v>1800398</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1841099</v>
+        <v>1841036</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9435943584304182</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9318700151096696</v>
+        <v>0.932755341633609</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.953842119220385</v>
+        <v>0.9538090995643808</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>39429</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>27957</v>
+        <v>27736</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54466</v>
+        <v>53400</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.05811181609814639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04120395048638376</v>
+        <v>0.04087809805105738</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.08027315882199057</v>
+        <v>0.07870154146566768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>39</v>
@@ -1199,19 +1199,19 @@
         <v>40573</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29490</v>
+        <v>28426</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>53529</v>
+        <v>54623</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05933160590056876</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.043124251931701</v>
+        <v>0.04156774697201143</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07827665446937569</v>
+        <v>0.07987743371759366</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -1220,19 +1220,19 @@
         <v>80003</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64003</v>
+        <v>62640</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>98990</v>
+        <v>98696</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05872409807583725</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04698008617599886</v>
+        <v>0.04597909989785801</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.07266085521489984</v>
+        <v>0.07244576261606835</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>639080</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>624043</v>
+        <v>625109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>650552</v>
+        <v>650773</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9418881839018536</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9197268411780097</v>
+        <v>0.9212984585343322</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9587960495136162</v>
+        <v>0.9591219019489426</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>657</v>
@@ -1270,19 +1270,19 @@
         <v>643268</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>630312</v>
+        <v>629218</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>654351</v>
+        <v>655415</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9406683940994313</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9217233455306244</v>
+        <v>0.9201225662824063</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.956875748068299</v>
+        <v>0.9584322530279887</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1260</v>
@@ -1291,19 +1291,19 @@
         <v>1282347</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1263360</v>
+        <v>1263654</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1298347</v>
+        <v>1299710</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9412759019241628</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9273391447851002</v>
+        <v>0.9275542373839316</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9530199138240011</v>
+        <v>0.9540209001021421</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>51696</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>39081</v>
+        <v>39466</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>67696</v>
+        <v>66192</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05486617472123863</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04147770358902809</v>
+        <v>0.04188616310026282</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07184704755927197</v>
+        <v>0.07025054184489818</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>76</v>
@@ -1416,19 +1416,19 @@
         <v>80801</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>64422</v>
+        <v>64388</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>99743</v>
+        <v>99300</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07779716804632344</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06202704021064662</v>
+        <v>0.06199469036579469</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09603527408139281</v>
+        <v>0.0956079581514727</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>130</v>
@@ -1437,19 +1437,19 @@
         <v>132497</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>111819</v>
+        <v>109644</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>155753</v>
+        <v>155887</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06688959703339258</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05645047879368319</v>
+        <v>0.05535247693893628</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07863023529317827</v>
+        <v>0.07869757656168973</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>890526</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>874526</v>
+        <v>876030</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>903141</v>
+        <v>902756</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9451338252787613</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.928152952440728</v>
+        <v>0.9297494581551015</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9585222964109719</v>
+        <v>0.9581138368997372</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>921</v>
@@ -1487,19 +1487,19 @@
         <v>957811</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>938869</v>
+        <v>939312</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>974190</v>
+        <v>974224</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9222028319536766</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9039647259186073</v>
+        <v>0.9043920418485273</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9379729597893535</v>
+        <v>0.9380053096342054</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1861</v>
@@ -1508,19 +1508,19 @@
         <v>1848337</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1825081</v>
+        <v>1824947</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1869015</v>
+        <v>1871190</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9331104029666074</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9213697647068216</v>
+        <v>0.92130242343831</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9435495212063167</v>
+        <v>0.9446475230610637</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>163611</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>140406</v>
+        <v>140158</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>188371</v>
+        <v>191449</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04993393741010657</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04285200873922652</v>
+        <v>0.04277616800071952</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.05749074562967509</v>
+        <v>0.05843018412780338</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>200</v>
@@ -1633,19 +1633,19 @@
         <v>211529</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>184643</v>
+        <v>184997</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>240916</v>
+        <v>241382</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06259752466297842</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.05464096204607682</v>
+        <v>0.05474596447383961</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07129388954889423</v>
+        <v>0.07143190253277287</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>362</v>
@@ -1654,19 +1654,19 @@
         <v>375140</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>339175</v>
+        <v>342030</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>414130</v>
+        <v>414314</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05636338866745972</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05095976112769389</v>
+        <v>0.05138876134609212</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06222152767841781</v>
+        <v>0.06224914621784765</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3112932</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3088172</v>
+        <v>3085094</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3136137</v>
+        <v>3136385</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9500660625898935</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.942509254370325</v>
+        <v>0.9415698158721966</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9571479912607735</v>
+        <v>0.9572238319992804</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3097</v>
@@ -1704,19 +1704,19 @@
         <v>3167668</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3138281</v>
+        <v>3137815</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3194554</v>
+        <v>3194200</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9374024753370216</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9287061104511061</v>
+        <v>0.9285680974672272</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9453590379539233</v>
+        <v>0.9452540355261605</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6149</v>
@@ -1725,19 +1725,19 @@
         <v>6280601</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6241611</v>
+        <v>6241427</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6316566</v>
+        <v>6313711</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9436366113325403</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9377784723215822</v>
+        <v>0.9377508537821524</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.949040238872306</v>
+        <v>0.9486112386539078</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>40336</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29502</v>
+        <v>28666</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57793</v>
+        <v>55275</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05733821624647258</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04193738058448797</v>
+        <v>0.04075006835875281</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08215430827701178</v>
+        <v>0.07857439099739769</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>53</v>
@@ -2090,19 +2090,19 @@
         <v>55618</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40916</v>
+        <v>44119</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>71144</v>
+        <v>73665</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07979116799493731</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05869859508115786</v>
+        <v>0.06329433493407828</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1020650469192839</v>
+        <v>0.1056806502634032</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -2111,19 +2111,19 @@
         <v>95954</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77138</v>
+        <v>77847</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>116659</v>
+        <v>115653</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06851323796716174</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05507844948485241</v>
+        <v>0.05558438962091946</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08329695807461414</v>
+        <v>0.08257857807598711</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>663133</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>645676</v>
+        <v>648194</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>673967</v>
+        <v>674803</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9426617837535274</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9178456917229882</v>
+        <v>0.9214256090026023</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.958062619415512</v>
+        <v>0.9592499316412472</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>597</v>
@@ -2161,19 +2161,19 @@
         <v>641432</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>625906</v>
+        <v>623385</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>656134</v>
+        <v>652931</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9202088320050626</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8979349530807164</v>
+        <v>0.8943193497365971</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9413014049188422</v>
+        <v>0.9367056650659222</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1233</v>
@@ -2182,19 +2182,19 @@
         <v>1304565</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1283860</v>
+        <v>1284866</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1323381</v>
+        <v>1322672</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9314867620328382</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9167030419253859</v>
+        <v>0.9174214219240129</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9449215505151476</v>
+        <v>0.9444156103790805</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>82150</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>64503</v>
+        <v>65791</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102284</v>
+        <v>102641</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08070197449673372</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06336589003645314</v>
+        <v>0.06463080279201915</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1004806542136926</v>
+        <v>0.1008312808831754</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>93</v>
@@ -2307,19 +2307,19 @@
         <v>102689</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>84855</v>
+        <v>84671</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>122340</v>
+        <v>123230</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.09948682710213655</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08220952787356084</v>
+        <v>0.08203113551322644</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1185251554576739</v>
+        <v>0.1193874214747862</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>166</v>
@@ -2328,19 +2328,19 @@
         <v>184839</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>156716</v>
+        <v>161561</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>210674</v>
+        <v>214929</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09015962531657913</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07644211443937213</v>
+        <v>0.07880540773484947</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1027610873346238</v>
+        <v>0.1048365271070806</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>935797</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>915663</v>
+        <v>915306</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>953444</v>
+        <v>952156</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9192980255032662</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8995193457863077</v>
+        <v>0.8991687191168246</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9366341099635469</v>
+        <v>0.935369197207981</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>847</v>
@@ -2378,19 +2378,19 @@
         <v>929495</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>909844</v>
+        <v>908954</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>947329</v>
+        <v>947513</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9005131728978635</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8814748445423261</v>
+        <v>0.8806125785252138</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.917790472126439</v>
+        <v>0.9179688644867736</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1710</v>
@@ -2399,19 +2399,19 @@
         <v>1865292</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1839457</v>
+        <v>1835202</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1893415</v>
+        <v>1888570</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9098403746834208</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8972389126653763</v>
+        <v>0.8951634728929194</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9235578855606281</v>
+        <v>0.9211945922651504</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>56294</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>42890</v>
+        <v>42472</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>73968</v>
+        <v>73275</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07430298562863705</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05661174979042437</v>
+        <v>0.05606010332598997</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09763222365984964</v>
+        <v>0.0967167190624184</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>56</v>
@@ -2524,19 +2524,19 @@
         <v>64707</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>49330</v>
+        <v>49947</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>83948</v>
+        <v>83308</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08325898633605974</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06347299532738347</v>
+        <v>0.06426808910714436</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1080173957515342</v>
+        <v>0.1071934252871508</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>108</v>
@@ -2545,19 +2545,19 @@
         <v>121000</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>101114</v>
+        <v>101303</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>147958</v>
+        <v>146772</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07883802804537615</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06588071654991609</v>
+        <v>0.0660042913611234</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09640213858758304</v>
+        <v>0.09562969175154507</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>701329</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>683655</v>
+        <v>684348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>714733</v>
+        <v>715151</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.925697014371363</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9023677763401504</v>
+        <v>0.9032832809375816</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9433882502095756</v>
+        <v>0.9439398966740101</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>649</v>
@@ -2595,19 +2595,19 @@
         <v>712467</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>693226</v>
+        <v>693866</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>727844</v>
+        <v>727227</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9167410136639402</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8919826042484659</v>
+        <v>0.8928065747128492</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9365270046726165</v>
+        <v>0.9357319108928557</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1286</v>
@@ -2616,19 +2616,19 @@
         <v>1413797</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1386839</v>
+        <v>1388025</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1433683</v>
+        <v>1433494</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9211619719546238</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9035978614124174</v>
+        <v>0.9043703082484551</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9341192834500839</v>
+        <v>0.9339957086388768</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>71725</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>54219</v>
+        <v>56655</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>90714</v>
+        <v>92188</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07567968076056046</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05720861714608159</v>
+        <v>0.05977872071093512</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09571582330719759</v>
+        <v>0.0972718852105388</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>94</v>
@@ -2741,19 +2741,19 @@
         <v>100339</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82600</v>
+        <v>81933</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>119911</v>
+        <v>123157</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09538859083983033</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07852412866956252</v>
+        <v>0.07789082964222475</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1139948972548637</v>
+        <v>0.1170804143529984</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>158</v>
@@ -2762,19 +2762,19 @@
         <v>172064</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>147402</v>
+        <v>147557</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>200675</v>
+        <v>201189</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08604745618121928</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07371405127252366</v>
+        <v>0.07379175685483381</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1003556247800886</v>
+        <v>0.1006125588476336</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>876014</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>857025</v>
+        <v>855551</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>893520</v>
+        <v>891084</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9243203192394396</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9042841766928023</v>
+        <v>0.9027281147894609</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9427913828539184</v>
+        <v>0.9402212792890647</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>909</v>
@@ -2812,19 +2812,19 @@
         <v>951562</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>931990</v>
+        <v>928744</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>969301</v>
+        <v>969968</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9046114091601697</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8860051027451363</v>
+        <v>0.8829195856470018</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9214758713304375</v>
+        <v>0.9221091703577753</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1755</v>
@@ -2833,19 +2833,19 @@
         <v>1827576</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1798965</v>
+        <v>1798451</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1852238</v>
+        <v>1852083</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9139525438187808</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.899644375219911</v>
+        <v>0.8993874411523665</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9262859487274762</v>
+        <v>0.926208243145166</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>250504</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>220325</v>
+        <v>220649</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>284204</v>
+        <v>284190</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07310197190093792</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0642951189885948</v>
+        <v>0.06438953553770181</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08293609902617817</v>
+        <v>0.082932106996797</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>296</v>
@@ -2958,19 +2958,19 @@
         <v>323353</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>291747</v>
+        <v>288909</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>361240</v>
+        <v>358775</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09087272033551926</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.08199023821857671</v>
+        <v>0.08119282508642628</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1015201075544141</v>
+        <v>0.100827331118257</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>523</v>
@@ -2979,19 +2979,19 @@
         <v>573858</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>530201</v>
+        <v>526329</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>624350</v>
+        <v>625205</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08215465901507424</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07590467218028921</v>
+        <v>0.07535034231610496</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.08938330677493805</v>
+        <v>0.08950562897190951</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3176275</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3142575</v>
+        <v>3142589</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3206454</v>
+        <v>3206130</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9268980280990621</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9170639009738218</v>
+        <v>0.9170678930032021</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.935704881011406</v>
+        <v>0.9356104644622978</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3002</v>
@@ -3029,19 +3029,19 @@
         <v>3234956</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3197069</v>
+        <v>3199534</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3266562</v>
+        <v>3269400</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9091272796644807</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.898479892445586</v>
+        <v>0.899172668881743</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9180097617814232</v>
+        <v>0.9188071749135738</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5984</v>
@@ -3050,19 +3050,19 @@
         <v>6411230</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6360738</v>
+        <v>6359883</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6454887</v>
+        <v>6458759</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9178453409849258</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9106166932250611</v>
+        <v>0.9104943710280905</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9240953278197106</v>
+        <v>0.9246496576838953</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>47171</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36006</v>
+        <v>35010</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>62312</v>
+        <v>61132</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06990319597305214</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.05335867553672341</v>
+        <v>0.05188137928695509</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09234076463127677</v>
+        <v>0.09059330847993204</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>45</v>
@@ -3415,19 +3415,19 @@
         <v>47306</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>35478</v>
+        <v>36389</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>63446</v>
+        <v>62939</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.07030766821090713</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05272838351660489</v>
+        <v>0.05408268099493685</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09429605939136419</v>
+        <v>0.09354281829784969</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>91</v>
@@ -3436,19 +3436,19 @@
         <v>94476</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>77358</v>
+        <v>75319</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>116760</v>
+        <v>113970</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.07010513781033313</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05740232775733685</v>
+        <v>0.05588955053140635</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.08664047740600801</v>
+        <v>0.08456976938905907</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>627629</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>612488</v>
+        <v>613668</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>638794</v>
+        <v>639790</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9300968040269478</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9076592353687233</v>
+        <v>0.9094066915200687</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9466413244632766</v>
+        <v>0.948118620713045</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>621</v>
@@ -3486,19 +3486,19 @@
         <v>625533</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>609393</v>
+        <v>609900</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>637361</v>
+        <v>636450</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9296923317890928</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9057039406086363</v>
+        <v>0.9064571817021505</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9472716164833956</v>
+        <v>0.9459173190050635</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1227</v>
@@ -3507,19 +3507,19 @@
         <v>1253163</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1230879</v>
+        <v>1233669</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1270281</v>
+        <v>1272320</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9298948621896669</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.913359522593992</v>
+        <v>0.915430230610941</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9425976722426632</v>
+        <v>0.9441104494685937</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>51743</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39159</v>
+        <v>38887</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>68748</v>
+        <v>68723</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05060789730270798</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03829950025595113</v>
+        <v>0.03803426167927001</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06723991912882379</v>
+        <v>0.06721560950481659</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>66</v>
@@ -3632,19 +3632,19 @@
         <v>74802</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>59342</v>
+        <v>57896</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>94246</v>
+        <v>94397</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07172412859944637</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.05690056252797967</v>
+        <v>0.05551330710424168</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.09036790075588398</v>
+        <v>0.09051256156594682</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>114</v>
@@ -3653,19 +3653,19 @@
         <v>126545</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>105370</v>
+        <v>102829</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>152475</v>
+        <v>150207</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.06127071775222334</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.05101799780089807</v>
+        <v>0.04978790353608649</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.07382561445393941</v>
+        <v>0.07272732443720356</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>970688</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>953683</v>
+        <v>953708</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>983272</v>
+        <v>983544</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.949392102697292</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9327600808711762</v>
+        <v>0.9327843904951835</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9617004997440489</v>
+        <v>0.9619657383207301</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>911</v>
@@ -3703,19 +3703,19 @@
         <v>968111</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>948667</v>
+        <v>948516</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>983571</v>
+        <v>985017</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9282758714005537</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.909632099244116</v>
+        <v>0.9094874384340531</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9430994374720202</v>
+        <v>0.9444866928957583</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1814</v>
@@ -3724,19 +3724,19 @@
         <v>1938799</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1912869</v>
+        <v>1915137</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1959974</v>
+        <v>1962515</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9387292822477766</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9261743855460607</v>
+        <v>0.9272726755627965</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.948982002199102</v>
+        <v>0.9502120964639136</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>23940</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>15289</v>
+        <v>14717</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>35616</v>
+        <v>35973</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03151918909334862</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02012831848853604</v>
+        <v>0.01937637704158159</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04689067062400402</v>
+        <v>0.04736042355162633</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>35</v>
@@ -3849,19 +3849,19 @@
         <v>40474</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>29066</v>
+        <v>28833</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55707</v>
+        <v>54477</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05155853968967165</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03702604963831591</v>
+        <v>0.03672965383263749</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07096276040551733</v>
+        <v>0.06939697267066698</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>57</v>
@@ -3870,19 +3870,19 @@
         <v>64414</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>50188</v>
+        <v>49571</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>82542</v>
+        <v>82899</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04170401608850162</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03249347655201803</v>
+        <v>0.03209418345220296</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05344006102017757</v>
+        <v>0.05367153027606884</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>735612</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>723936</v>
+        <v>723579</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>744263</v>
+        <v>744835</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9684808109066514</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9531093293759959</v>
+        <v>0.9526395764483738</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9798716815114633</v>
+        <v>0.9806236229584184</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>701</v>
@@ -3920,19 +3920,19 @@
         <v>744537</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>729304</v>
+        <v>730534</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>755945</v>
+        <v>756178</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9484414603103284</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9290372395944828</v>
+        <v>0.9306030273293331</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9629739503616842</v>
+        <v>0.9632703461673626</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1375</v>
@@ -3941,19 +3941,19 @@
         <v>1480149</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1462021</v>
+        <v>1461664</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1494375</v>
+        <v>1494992</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9582959839114984</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9465599389798223</v>
+        <v>0.9463284697239316</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9675065234479818</v>
+        <v>0.9679058165477978</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>65640</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>50746</v>
+        <v>50876</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>82283</v>
+        <v>82396</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07001094361188719</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05412484138443498</v>
+        <v>0.05426391228613529</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.08776192939218019</v>
+        <v>0.08788278972190675</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>71</v>
@@ -4066,19 +4066,19 @@
         <v>82132</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>63861</v>
+        <v>65456</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>101828</v>
+        <v>102645</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07868697587083627</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06118271252465673</v>
+        <v>0.06271042509015312</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09755682140965917</v>
+        <v>0.09834010181045662</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>134</v>
@@ -4087,19 +4087,19 @@
         <v>147772</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>125073</v>
+        <v>123623</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>173981</v>
+        <v>172988</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07458150338854035</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06312543561231143</v>
+        <v>0.06239369064145235</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08780938142046397</v>
+        <v>0.08730833886291343</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>871927</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>855284</v>
+        <v>855171</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>886821</v>
+        <v>886691</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9299890563881128</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9122380706078198</v>
+        <v>0.9121172102780932</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.945875158615565</v>
+        <v>0.9457360877138647</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>888</v>
@@ -4137,19 +4137,19 @@
         <v>961647</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>941951</v>
+        <v>941134</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>979918</v>
+        <v>978323</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9213130241291637</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.90244317859034</v>
+        <v>0.9016598981895434</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9388172874753431</v>
+        <v>0.9372895749098469</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1757</v>
@@ -4158,19 +4158,19 @@
         <v>1833574</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1807365</v>
+        <v>1808358</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1856273</v>
+        <v>1857723</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9254184966114597</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9121906185795359</v>
+        <v>0.912691661137087</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9368745643876886</v>
+        <v>0.9376063093585482</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>188494</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>164224</v>
+        <v>161842</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>220076</v>
+        <v>216225</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05553174074114699</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04838153796789946</v>
+        <v>0.04767982581940018</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06483610987414637</v>
+        <v>0.0637013106270657</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>217</v>
@@ -4283,19 +4283,19 @@
         <v>244714</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>213645</v>
+        <v>213089</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>280084</v>
+        <v>278518</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06903955462421327</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.06027443957268275</v>
+        <v>0.06011752654520586</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07901834150987914</v>
+        <v>0.07857669178624521</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>396</v>
@@ -4304,19 +4304,19 @@
         <v>433208</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>390956</v>
+        <v>387373</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>473027</v>
+        <v>474364</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.06243183534737137</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.05634277062347628</v>
+        <v>0.05582634633503576</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06817032633125863</v>
+        <v>0.06836301283125795</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3205856</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3174274</v>
+        <v>3178125</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3230126</v>
+        <v>3232508</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.944468259258853</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9351638901258542</v>
+        <v>0.9362986893729343</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9516184620321007</v>
+        <v>0.9523201741805998</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3121</v>
@@ -4354,19 +4354,19 @@
         <v>3299828</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3264458</v>
+        <v>3266024</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3330897</v>
+        <v>3331453</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9309604453757867</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9209816584901216</v>
+        <v>0.9214233082137552</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9397255604273174</v>
+        <v>0.9398824734547941</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6173</v>
@@ -4375,19 +4375,19 @@
         <v>6505684</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6465865</v>
+        <v>6464528</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6547936</v>
+        <v>6551519</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9375681646526286</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9318296736687415</v>
+        <v>0.9316369871687421</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9436572293765236</v>
+        <v>0.9441736536649643</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>85517</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>69093</v>
+        <v>71198</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>102151</v>
+        <v>102949</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1238109613986593</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1000315209784288</v>
+        <v>0.1030790056857406</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1478923713837848</v>
+        <v>0.1490487435125134</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>158</v>
@@ -4740,19 +4740,19 @@
         <v>81007</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68045</v>
+        <v>68155</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95444</v>
+        <v>96212</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1103369007987265</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.09268221510882313</v>
+        <v>0.09283131953786551</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1300014522148915</v>
+        <v>0.1310463194801902</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>265</v>
@@ -4761,19 +4761,19 @@
         <v>166524</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>145329</v>
+        <v>144019</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>189722</v>
+        <v>190069</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1168683990951616</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1019931914518426</v>
+        <v>0.1010738065911847</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1331484758474081</v>
+        <v>0.1333922335293546</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>605193</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>588559</v>
+        <v>587761</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>621617</v>
+        <v>619512</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8761890386013408</v>
+        <v>0.8761890386013407</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8521076286162153</v>
+        <v>0.8509512564874865</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8999684790215712</v>
+        <v>0.8969209943142594</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1083</v>
@@ -4811,19 +4811,19 @@
         <v>653173</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>638736</v>
+        <v>637968</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>666135</v>
+        <v>666025</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8896630992012734</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8699985477851083</v>
+        <v>0.8689536805198095</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9073177848911771</v>
+        <v>0.9071686804621344</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1706</v>
@@ -4832,19 +4832,19 @@
         <v>1258365</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1235167</v>
+        <v>1234820</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1279560</v>
+        <v>1280870</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8831316009048386</v>
+        <v>0.8831316009048383</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8668515241525921</v>
+        <v>0.8666077664706459</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8980068085481578</v>
+        <v>0.8989261934088159</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>124258</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>103447</v>
+        <v>103519</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>146402</v>
+        <v>150091</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1184632463142052</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09862246771005592</v>
+        <v>0.0986914790453409</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1395741959902927</v>
+        <v>0.1430912736156564</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>228</v>
@@ -4957,19 +4957,19 @@
         <v>143077</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>126300</v>
+        <v>125279</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>160277</v>
+        <v>162540</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1335330320299347</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1178745700287552</v>
+        <v>0.1169216440093279</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1495857881223021</v>
+        <v>0.1516974085516873</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>361</v>
@@ -4978,19 +4978,19 @@
         <v>267335</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>241783</v>
+        <v>240163</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>297940</v>
+        <v>297108</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1260782969029383</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1140275672238292</v>
+        <v>0.1132635200414486</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1405118632693188</v>
+        <v>0.1401194431463962</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>924659</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>902515</v>
+        <v>898826</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>945470</v>
+        <v>945398</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8815367536857949</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8604258040097073</v>
+        <v>0.8569087263843435</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9013775322899439</v>
+        <v>0.9013085209546591</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1289</v>
@@ -5028,19 +5028,19 @@
         <v>928397</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>911197</v>
+        <v>908934</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>945174</v>
+        <v>946195</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.8664669679700652</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.8504142118776979</v>
+        <v>0.8483025914483127</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8821254299712448</v>
+        <v>0.883078355990672</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2120</v>
@@ -5049,19 +5049,19 @@
         <v>1853056</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1822451</v>
+        <v>1823283</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1878608</v>
+        <v>1880228</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8739217030970616</v>
+        <v>0.8739217030970615</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8594881367306811</v>
+        <v>0.8598805568536039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8859724327761707</v>
+        <v>0.8867364799585513</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>96243</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>77941</v>
+        <v>79377</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116924</v>
+        <v>118642</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1198432333441697</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09705311372089757</v>
+        <v>0.09884209360648848</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1455951582963877</v>
+        <v>0.1477346766730775</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>141</v>
@@ -5174,19 +5174,19 @@
         <v>99751</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>85246</v>
+        <v>84574</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>115849</v>
+        <v>118092</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1228070955206015</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1049491543128335</v>
+        <v>0.1041223632177979</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1426262414261637</v>
+        <v>0.1453867316120395</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>231</v>
@@ -5195,19 +5195,19 @@
         <v>195994</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>169032</v>
+        <v>171252</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>220781</v>
+        <v>221256</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1213335915332769</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1046419961420072</v>
+        <v>0.106016390459002</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1366783061502156</v>
+        <v>0.1369723454472627</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>706830</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>686149</v>
+        <v>684431</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>725132</v>
+        <v>723696</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8801567666558303</v>
+        <v>0.8801567666558302</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8544048417036124</v>
+        <v>0.8522653233269224</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9029468862791026</v>
+        <v>0.9011579063935113</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>906</v>
@@ -5245,19 +5245,19 @@
         <v>712508</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>696410</v>
+        <v>694167</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>727013</v>
+        <v>727685</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8771929044793985</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8573737585738364</v>
+        <v>0.8546132683879605</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8950508456871664</v>
+        <v>0.895877636782202</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1492</v>
@@ -5266,19 +5266,19 @@
         <v>1419338</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1394551</v>
+        <v>1394076</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1446300</v>
+        <v>1444080</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.8786664084667231</v>
+        <v>0.8786664084667232</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8633216938497846</v>
+        <v>0.8630276545527374</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8953580038579931</v>
+        <v>0.8939836095409982</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>77657</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62151</v>
+        <v>60832</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>95552</v>
+        <v>94891</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.07843658134336773</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06277448385588232</v>
+        <v>0.06144227932283974</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09651112327273123</v>
+        <v>0.09584383835768967</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>157</v>
@@ -5391,19 +5391,19 @@
         <v>103580</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88901</v>
+        <v>88165</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120758</v>
+        <v>122658</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.09256150971048356</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07944418221653197</v>
+        <v>0.07878624828228856</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1079122835133098</v>
+        <v>0.1096102520688738</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>249</v>
@@ -5412,19 +5412,19 @@
         <v>181237</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>159872</v>
+        <v>158851</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>207896</v>
+        <v>205404</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.08593094023650467</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.07580101112146483</v>
+        <v>0.07531680044959034</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.09857076302012445</v>
+        <v>0.09738940886691341</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>912405</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>894510</v>
+        <v>895171</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>927911</v>
+        <v>929230</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9215634186566323</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9034888767272689</v>
+        <v>0.9041561616423103</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9372255161441178</v>
+        <v>0.9385577206771606</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1405</v>
@@ -5462,19 +5462,19 @@
         <v>1015461</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>998283</v>
+        <v>996383</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1030140</v>
+        <v>1030876</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9074384902895166</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8920877164866902</v>
+        <v>0.8903897479311252</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.920555817783468</v>
+        <v>0.9212137517177111</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2319</v>
@@ -5483,19 +5483,19 @@
         <v>1927867</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1901208</v>
+        <v>1903700</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1949232</v>
+        <v>1950253</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9140690597634954</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9014292369798758</v>
+        <v>0.9026105911330866</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9241989888785352</v>
+        <v>0.9246831995504091</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>383676</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>343254</v>
+        <v>348699</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>420015</v>
+        <v>422697</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1086049704302342</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09716305788333555</v>
+        <v>0.09870439189899308</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1188913068127</v>
+        <v>0.1196506665590197</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>684</v>
@@ -5608,19 +5608,19 @@
         <v>427416</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>397090</v>
+        <v>397140</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>461814</v>
+        <v>462816</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1143753991354247</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1062603195657008</v>
+        <v>0.1062736264969031</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1235802588909297</v>
+        <v>0.1238485385859447</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1106</v>
@@ -5629,19 +5629,19 @@
         <v>811091</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>764752</v>
+        <v>759499</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>861253</v>
+        <v>859682</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1115712248711752</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1051969513523481</v>
+        <v>0.1044743221783358</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1184713604200549</v>
+        <v>0.1182552928918669</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3149086</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3112747</v>
+        <v>3110065</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3189508</v>
+        <v>3184063</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8913950295697659</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8811086931873002</v>
+        <v>0.8803493334409803</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9028369421166647</v>
+        <v>0.901295608101007</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4683</v>
@@ -5679,19 +5679,19 @@
         <v>3309538</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3275140</v>
+        <v>3274138</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3339864</v>
+        <v>3339814</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8856246008645754</v>
+        <v>0.8856246008645753</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8764197411090699</v>
+        <v>0.8761514614140556</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8937396804342991</v>
+        <v>0.8937263735030971</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7637</v>
@@ -5700,19 +5700,19 @@
         <v>6458625</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6408463</v>
+        <v>6410034</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6504964</v>
+        <v>6510217</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8884287751288248</v>
+        <v>0.8884287751288247</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8815286395799452</v>
+        <v>0.8817447071081329</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8948030486476519</v>
+        <v>0.8955256778216643</v>
       </c>
     </row>
     <row r="18">
